--- a/emb/memory map.xlsx
+++ b/emb/memory map.xlsx
@@ -38,21 +38,9 @@
     <t>DTCM</t>
   </si>
   <si>
-    <t>SRAM1</t>
-  </si>
-  <si>
     <t>AXI SRAM</t>
   </si>
   <si>
-    <t>SRAM2</t>
-  </si>
-  <si>
-    <t>SRAM3</t>
-  </si>
-  <si>
-    <t>SRAM4</t>
-  </si>
-  <si>
     <t>Backup SRAM</t>
   </si>
   <si>
@@ -65,10 +53,22 @@
     <t>FLASH B2</t>
   </si>
   <si>
-    <t>System Memory</t>
-  </si>
-  <si>
     <t>size, kB</t>
+  </si>
+  <si>
+    <t>AHB SRAM1</t>
+  </si>
+  <si>
+    <t>AHB SRAM2</t>
+  </si>
+  <si>
+    <t>AHB SRAM3</t>
+  </si>
+  <si>
+    <t>AHB SRAM4</t>
+  </si>
+  <si>
+    <t>System Memory (bootloader)</t>
   </si>
 </sst>
 </file>
@@ -76,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -125,11 +125,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
     <col min="5" max="5" width="13" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H1" s="3"/>
     </row>
@@ -448,11 +448,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>DEC2HEX(A2)</f>
+        <f t="shared" ref="B2:B12" si="0">DEC2HEX(A2)</f>
         <v>0</v>
       </c>
       <c r="C2" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(B2)),B2)</f>
+        <f t="shared" ref="C2:C12" si="1">CONCATENATE("0х",REPT("0",8-LEN(B2)),B2)</f>
         <v>0х00000000</v>
       </c>
       <c r="D2" s="4">
@@ -460,19 +460,19 @@
         <v>65535</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f>DEC2HEX(D2)</f>
+        <f t="shared" ref="E2:E12" si="2">DEC2HEX(D2)</f>
         <v>FFFF</v>
       </c>
       <c r="F2" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(E2)),E2)</f>
+        <f t="shared" ref="F2:F12" si="3">CONCATENATE("0х",REPT("0",8-LEN(E2)),E2)</f>
         <v>0х0000FFFF</v>
       </c>
       <c r="G2" s="3">
-        <f>(D2-A2+1)/1024</f>
+        <f t="shared" ref="G2:G12" si="4">(D2-A2+1)/1024</f>
         <v>64</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -481,11 +481,11 @@
         <v>134217728</v>
       </c>
       <c r="B3" t="str">
-        <f>DEC2HEX(A3)</f>
+        <f t="shared" si="0"/>
         <v>8000000</v>
       </c>
       <c r="C3" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(B3)),B3)</f>
+        <f t="shared" si="1"/>
         <v>0х08000000</v>
       </c>
       <c r="D3" s="4">
@@ -493,19 +493,19 @@
         <v>135266303</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f>DEC2HEX(D3)</f>
+        <f t="shared" si="2"/>
         <v>80FFFFF</v>
       </c>
       <c r="F3" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(E3)),E3)</f>
+        <f t="shared" si="3"/>
         <v>0х080FFFFF</v>
       </c>
       <c r="G3" s="3">
-        <f>(D3-A3+1)/1024</f>
+        <f t="shared" si="4"/>
         <v>1024</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -514,11 +514,11 @@
         <v>135266304</v>
       </c>
       <c r="B4" t="str">
-        <f>DEC2HEX(A4)</f>
+        <f t="shared" si="0"/>
         <v>8100000</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(B4)),B4)</f>
+        <f t="shared" si="1"/>
         <v>0х08100000</v>
       </c>
       <c r="D4" s="4">
@@ -526,19 +526,19 @@
         <v>136314879</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f>DEC2HEX(D4)</f>
+        <f t="shared" si="2"/>
         <v>81FFFFF</v>
       </c>
       <c r="F4" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(E4)),E4)</f>
+        <f t="shared" si="3"/>
         <v>0х081FFFFF</v>
       </c>
       <c r="G4" s="3">
-        <f>(D4-A4+1)/1024</f>
+        <f t="shared" si="4"/>
         <v>1024</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -547,11 +547,11 @@
         <v>535822336</v>
       </c>
       <c r="B5" t="str">
-        <f>DEC2HEX(A5)</f>
+        <f t="shared" si="0"/>
         <v>1FF00000</v>
       </c>
       <c r="C5" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(B5)),B5)</f>
+        <f t="shared" si="1"/>
         <v>0х1FF00000</v>
       </c>
       <c r="D5" s="4">
@@ -559,19 +559,19 @@
         <v>535953407</v>
       </c>
       <c r="E5" s="5" t="str">
-        <f>DEC2HEX(D5)</f>
+        <f t="shared" si="2"/>
         <v>1FF1FFFF</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(E5)),E5)</f>
+        <f t="shared" si="3"/>
         <v>0х1FF1FFFF</v>
       </c>
       <c r="G5" s="3">
-        <f>(D5-A5+1)/1024</f>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -579,26 +579,26 @@
         <v>536870912</v>
       </c>
       <c r="B6" t="str">
-        <f>DEC2HEX(A6)</f>
+        <f t="shared" si="0"/>
         <v>20000000</v>
       </c>
       <c r="C6" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(B6)),B6)</f>
+        <f t="shared" si="1"/>
         <v>0х20000000</v>
       </c>
       <c r="D6" s="4">
         <v>537001983</v>
       </c>
       <c r="E6" s="5" t="str">
-        <f>DEC2HEX(D6)</f>
+        <f t="shared" si="2"/>
         <v>2001FFFF</v>
       </c>
       <c r="F6" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(E6)),E6)</f>
+        <f t="shared" si="3"/>
         <v>0х2001FFFF</v>
       </c>
       <c r="G6" s="3">
-        <f>(D6-A6+1)/1024</f>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -611,11 +611,11 @@
         <v>603979776</v>
       </c>
       <c r="B7" t="str">
-        <f>DEC2HEX(A7)</f>
+        <f t="shared" si="0"/>
         <v>24000000</v>
       </c>
       <c r="C7" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(B7)),B7)</f>
+        <f t="shared" si="1"/>
         <v>0х24000000</v>
       </c>
       <c r="D7" s="4">
@@ -623,19 +623,19 @@
         <v>604504063</v>
       </c>
       <c r="E7" s="5" t="str">
-        <f>DEC2HEX(D7)</f>
+        <f t="shared" si="2"/>
         <v>2407FFFF</v>
       </c>
       <c r="F7" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(E7)),E7)</f>
+        <f t="shared" si="3"/>
         <v>0х2407FFFF</v>
       </c>
       <c r="G7" s="3">
-        <f>(D7-A7+1)/1024</f>
+        <f t="shared" si="4"/>
         <v>512</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -644,11 +644,11 @@
         <v>805306368</v>
       </c>
       <c r="B8" t="str">
-        <f>DEC2HEX(A8)</f>
+        <f t="shared" si="0"/>
         <v>30000000</v>
       </c>
       <c r="C8" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(B8)),B8)</f>
+        <f t="shared" si="1"/>
         <v>0х30000000</v>
       </c>
       <c r="D8" s="4">
@@ -656,19 +656,19 @@
         <v>805437439</v>
       </c>
       <c r="E8" s="5" t="str">
-        <f>DEC2HEX(D8)</f>
+        <f t="shared" si="2"/>
         <v>3001FFFF</v>
       </c>
       <c r="F8" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(E8)),E8)</f>
+        <f t="shared" si="3"/>
         <v>0х3001FFFF</v>
       </c>
       <c r="G8" s="3">
-        <f>(D8-A8+1)/1024</f>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -677,11 +677,11 @@
         <v>805437440</v>
       </c>
       <c r="B9" t="str">
-        <f>DEC2HEX(A9)</f>
+        <f t="shared" si="0"/>
         <v>30020000</v>
       </c>
       <c r="C9" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(B9)),B9)</f>
+        <f t="shared" si="1"/>
         <v>0х30020000</v>
       </c>
       <c r="D9" s="4">
@@ -689,19 +689,19 @@
         <v>805568511</v>
       </c>
       <c r="E9" s="5" t="str">
-        <f>DEC2HEX(D9)</f>
+        <f t="shared" si="2"/>
         <v>3003FFFF</v>
       </c>
       <c r="F9" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(E9)),E9)</f>
+        <f t="shared" si="3"/>
         <v>0х3003FFFF</v>
       </c>
       <c r="G9" s="3">
-        <f>(D9-A9+1)/1024</f>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -710,11 +710,11 @@
         <v>805568512</v>
       </c>
       <c r="B10" t="str">
-        <f>DEC2HEX(A10)</f>
+        <f t="shared" si="0"/>
         <v>30040000</v>
       </c>
       <c r="C10" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(B10)),B10)</f>
+        <f t="shared" si="1"/>
         <v>0х30040000</v>
       </c>
       <c r="D10" s="4">
@@ -722,19 +722,19 @@
         <v>805699583</v>
       </c>
       <c r="E10" s="5" t="str">
-        <f>DEC2HEX(D10)</f>
+        <f t="shared" si="2"/>
         <v>3005FFFF</v>
       </c>
       <c r="F10" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(E10)),E10)</f>
+        <f t="shared" si="3"/>
         <v>0х3005FFFF</v>
       </c>
       <c r="G10" s="3">
-        <f>(D10-A10+1)/1024</f>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -743,11 +743,11 @@
         <v>939524096</v>
       </c>
       <c r="B11" t="str">
-        <f>DEC2HEX(A11)</f>
+        <f t="shared" si="0"/>
         <v>38000000</v>
       </c>
       <c r="C11" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(B11)),B11)</f>
+        <f t="shared" si="1"/>
         <v>0х38000000</v>
       </c>
       <c r="D11" s="4">
@@ -755,19 +755,19 @@
         <v>939589631</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f>DEC2HEX(D11)</f>
+        <f t="shared" si="2"/>
         <v>3800FFFF</v>
       </c>
       <c r="F11" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(E11)),E11)</f>
+        <f t="shared" si="3"/>
         <v>0х3800FFFF</v>
       </c>
       <c r="G11" s="3">
-        <f>(D11-A11+1)/1024</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -776,11 +776,11 @@
         <v>947912704</v>
       </c>
       <c r="B12" t="str">
-        <f>DEC2HEX(A12)</f>
+        <f t="shared" si="0"/>
         <v>38800000</v>
       </c>
       <c r="C12" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(B12)),B12)</f>
+        <f t="shared" si="1"/>
         <v>0х38800000</v>
       </c>
       <c r="D12" s="4">
@@ -788,19 +788,19 @@
         <v>947916799</v>
       </c>
       <c r="E12" s="5" t="str">
-        <f>DEC2HEX(D12)</f>
+        <f t="shared" si="2"/>
         <v>38800FFF</v>
       </c>
       <c r="F12" s="5" t="str">
-        <f>CONCATENATE("0х",REPT("0",8-LEN(E12)),E12)</f>
+        <f t="shared" si="3"/>
         <v>0х38800FFF</v>
       </c>
       <c r="G12" s="3">
-        <f>(D12-A12+1)/1024</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
